--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H2">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I2">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J2">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.422114966676761</v>
+        <v>1.628421</v>
       </c>
       <c r="N2">
-        <v>9.422114966676761</v>
+        <v>4.885263</v>
       </c>
       <c r="O2">
-        <v>0.351447299020941</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P2">
-        <v>0.351447299020941</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q2">
-        <v>42.3761499503567</v>
+        <v>8.109191897555</v>
       </c>
       <c r="R2">
-        <v>42.3761499503567</v>
+        <v>72.98272707799501</v>
       </c>
       <c r="S2">
-        <v>0.0449123319114161</v>
+        <v>0.006243041362686147</v>
       </c>
       <c r="T2">
-        <v>0.0449123319114161</v>
+        <v>0.006243041362686148</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H3">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I3">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J3">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.523375653680503</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N3">
-        <v>0.523375653680503</v>
+        <v>28.377195</v>
       </c>
       <c r="O3">
-        <v>0.01952204579437525</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P3">
-        <v>0.01952204579437525</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q3">
-        <v>2.35389243913604</v>
+        <v>47.10414153124167</v>
       </c>
       <c r="R3">
-        <v>2.35389243913604</v>
+        <v>423.937273781175</v>
       </c>
       <c r="S3">
-        <v>0.00249477120111429</v>
+        <v>0.03626416881588781</v>
       </c>
       <c r="T3">
-        <v>0.00249477120111429</v>
+        <v>0.03626416881588781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H4">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I4">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J4">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8639769525187</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N4">
-        <v>16.8639769525187</v>
+        <v>1.925473</v>
       </c>
       <c r="O4">
-        <v>0.6290306551846837</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P4">
-        <v>0.6290306551846837</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q4">
-        <v>75.84607263090386</v>
+        <v>3.196149327182778</v>
       </c>
       <c r="R4">
-        <v>75.84607263090386</v>
+        <v>28.765343944645</v>
       </c>
       <c r="S4">
-        <v>0.08038540528498044</v>
+        <v>0.002460626496820209</v>
       </c>
       <c r="T4">
-        <v>0.08038540528498044</v>
+        <v>0.00246062649682021</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.0003558396774</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H5">
-        <v>18.0003558396774</v>
+        <v>14.939365</v>
       </c>
       <c r="I5">
-        <v>0.5114620179352253</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J5">
-        <v>0.5114620179352253</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.422114966676761</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N5">
-        <v>9.422114966676761</v>
+        <v>65.894678</v>
       </c>
       <c r="O5">
-        <v>0.351447299020941</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P5">
-        <v>0.351447299020941</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q5">
-        <v>169.6014221625319</v>
+        <v>109.3805162443856</v>
       </c>
       <c r="R5">
-        <v>169.6014221625319</v>
+        <v>984.42464619947</v>
       </c>
       <c r="S5">
-        <v>0.179751944755135</v>
+        <v>0.08420901808866481</v>
       </c>
       <c r="T5">
-        <v>0.179751944755135</v>
+        <v>0.08420901808866481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H6">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I6">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J6">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.523375653680503</v>
+        <v>1.628421</v>
       </c>
       <c r="N6">
-        <v>0.523375653680503</v>
+        <v>4.885263</v>
       </c>
       <c r="O6">
-        <v>0.01952204579437525</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P6">
-        <v>0.01952204579437525</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q6">
-        <v>9.420948004072818</v>
+        <v>29.343338723184</v>
       </c>
       <c r="R6">
-        <v>9.420948004072818</v>
+        <v>264.090048508656</v>
       </c>
       <c r="S6">
-        <v>0.009984784936215045</v>
+        <v>0.02259062058000895</v>
       </c>
       <c r="T6">
-        <v>0.009984784936215045</v>
+        <v>0.02259062058000896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H7">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I7">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J7">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.8639769525187</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N7">
-        <v>16.8639769525187</v>
+        <v>28.377195</v>
       </c>
       <c r="O7">
-        <v>0.6290306551846837</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P7">
-        <v>0.6290306551846837</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q7">
-        <v>303.5575860174551</v>
+        <v>170.44765960376</v>
       </c>
       <c r="R7">
-        <v>303.5575860174551</v>
+        <v>1534.02893643384</v>
       </c>
       <c r="S7">
-        <v>0.3217252882438752</v>
+        <v>0.1312229137653238</v>
       </c>
       <c r="T7">
-        <v>0.3217252882438752</v>
+        <v>0.1312229137653238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.06827505660968</v>
+        <v>18.019504</v>
       </c>
       <c r="H8">
-        <v>7.06827505660968</v>
+        <v>54.058512</v>
       </c>
       <c r="I8">
-        <v>0.2008379309816797</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J8">
-        <v>0.2008379309816797</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.422114966676761</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N8">
-        <v>9.422114966676761</v>
+        <v>1.925473</v>
       </c>
       <c r="O8">
-        <v>0.351447299020941</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P8">
-        <v>0.351447299020941</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q8">
-        <v>66.5981001994701</v>
+        <v>11.56535614179734</v>
       </c>
       <c r="R8">
-        <v>66.5981001994701</v>
+        <v>104.088205276176</v>
       </c>
       <c r="S8">
-        <v>0.07058394838446549</v>
+        <v>0.008903846114334393</v>
       </c>
       <c r="T8">
-        <v>0.07058394838446549</v>
+        <v>0.008903846114334394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.06827505660968</v>
+        <v>18.019504</v>
       </c>
       <c r="H9">
-        <v>7.06827505660968</v>
+        <v>54.058512</v>
       </c>
       <c r="I9">
-        <v>0.2008379309816797</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J9">
-        <v>0.2008379309816797</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.523375653680503</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N9">
-        <v>0.523375653680503</v>
+        <v>65.894678</v>
       </c>
       <c r="O9">
-        <v>0.01952204579437525</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P9">
-        <v>0.01952204579437525</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q9">
-        <v>3.699363078146686</v>
+        <v>395.7964712665707</v>
       </c>
       <c r="R9">
-        <v>3.699363078146686</v>
+        <v>3562.168241399136</v>
       </c>
       <c r="S9">
-        <v>0.003920767285871928</v>
+        <v>0.3047126979529788</v>
       </c>
       <c r="T9">
-        <v>0.003920767285871928</v>
+        <v>0.3047126979529788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H10">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I10">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J10">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>16.8639769525187</v>
+        <v>1.628421</v>
       </c>
       <c r="N10">
-        <v>16.8639769525187</v>
+        <v>4.885263</v>
       </c>
       <c r="O10">
-        <v>0.6290306551846837</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P10">
-        <v>0.6290306551846837</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q10">
-        <v>119.1992276487285</v>
+        <v>14.253067459332</v>
       </c>
       <c r="R10">
-        <v>119.1992276487285</v>
+        <v>128.277607133988</v>
       </c>
       <c r="S10">
-        <v>0.1263332153113423</v>
+        <v>0.01097304032484355</v>
       </c>
       <c r="T10">
-        <v>0.1263332153113423</v>
+        <v>0.01097304032484355</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.62777404548827</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H11">
-        <v>5.62777404548827</v>
+        <v>26.258076</v>
       </c>
       <c r="I11">
-        <v>0.1599075426855841</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J11">
-        <v>0.1599075426855841</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.422114966676761</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N11">
-        <v>9.422114966676761</v>
+        <v>28.377195</v>
       </c>
       <c r="O11">
-        <v>0.351447299020941</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P11">
-        <v>0.351447299020941</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q11">
-        <v>53.02553406307005</v>
+        <v>82.79228255298003</v>
       </c>
       <c r="R11">
-        <v>53.02553406307005</v>
+        <v>745.13054297682</v>
       </c>
       <c r="S11">
-        <v>0.05619907396992434</v>
+        <v>0.06373947626585282</v>
       </c>
       <c r="T11">
-        <v>0.05619907396992434</v>
+        <v>0.06373947626585282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.62777404548827</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H12">
-        <v>5.62777404548827</v>
+        <v>26.258076</v>
       </c>
       <c r="I12">
-        <v>0.1599075426855841</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J12">
-        <v>0.1599075426855841</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.523375653680503</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N12">
-        <v>0.523375653680503</v>
+        <v>1.925473</v>
       </c>
       <c r="O12">
-        <v>0.01952204579437525</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P12">
-        <v>0.01952204579437525</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q12">
-        <v>2.945439919823592</v>
+        <v>5.617690707772002</v>
       </c>
       <c r="R12">
-        <v>2.945439919823592</v>
+        <v>50.55921636994801</v>
       </c>
       <c r="S12">
-        <v>0.003121722371173988</v>
+        <v>0.004324903873833916</v>
       </c>
       <c r="T12">
-        <v>0.003121722371173988</v>
+        <v>0.004324903873833916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.62777404548827</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H13">
-        <v>5.62777404548827</v>
+        <v>26.258076</v>
       </c>
       <c r="I13">
-        <v>0.1599075426855841</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J13">
-        <v>0.1599075426855841</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.8639769525187</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N13">
-        <v>16.8639769525187</v>
+        <v>65.894678</v>
       </c>
       <c r="O13">
-        <v>0.6290306551846837</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P13">
-        <v>0.6290306551846837</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q13">
-        <v>94.90665179709711</v>
+        <v>192.2519403243921</v>
       </c>
       <c r="R13">
-        <v>94.90665179709711</v>
+        <v>1730.267462919528</v>
       </c>
       <c r="S13">
-        <v>0.1005867463444857</v>
+        <v>0.1480094232156143</v>
       </c>
       <c r="T13">
-        <v>0.1005867463444857</v>
+        <v>0.1480094232156143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.798175000000001</v>
+      </c>
+      <c r="H14">
+        <v>20.394525</v>
+      </c>
+      <c r="I14">
+        <v>0.1763462231431503</v>
+      </c>
+      <c r="J14">
+        <v>0.1763462231431503</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.628421</v>
+      </c>
+      <c r="N14">
+        <v>4.885263</v>
+      </c>
+      <c r="O14">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="P14">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="Q14">
+        <v>11.070290931675</v>
+      </c>
+      <c r="R14">
+        <v>99.63261838507501</v>
+      </c>
+      <c r="S14">
+        <v>0.008522709174542339</v>
+      </c>
+      <c r="T14">
+        <v>0.00852270917454234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.798175000000001</v>
+      </c>
+      <c r="H15">
+        <v>20.394525</v>
+      </c>
+      <c r="I15">
+        <v>0.1763462231431503</v>
+      </c>
+      <c r="J15">
+        <v>0.1763462231431503</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.459065000000001</v>
+      </c>
+      <c r="N15">
+        <v>28.377195</v>
+      </c>
+      <c r="O15">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="P15">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="Q15">
+        <v>64.304379206375</v>
+      </c>
+      <c r="R15">
+        <v>578.7394128573751</v>
+      </c>
+      <c r="S15">
+        <v>0.04950615354266024</v>
+      </c>
+      <c r="T15">
+        <v>0.04950615354266024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.798175000000001</v>
+      </c>
+      <c r="H16">
+        <v>20.394525</v>
+      </c>
+      <c r="I16">
+        <v>0.1763462231431503</v>
+      </c>
+      <c r="J16">
+        <v>0.1763462231431503</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6418243333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.925473</v>
+      </c>
+      <c r="O16">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="P16">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="Q16">
+        <v>4.363234137258335</v>
+      </c>
+      <c r="R16">
+        <v>39.26910723532501</v>
+      </c>
+      <c r="S16">
+        <v>0.003359132640849338</v>
+      </c>
+      <c r="T16">
+        <v>0.003359132640849339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.798175000000001</v>
+      </c>
+      <c r="H17">
+        <v>20.394525</v>
+      </c>
+      <c r="I17">
+        <v>0.1763462231431503</v>
+      </c>
+      <c r="J17">
+        <v>0.1763462231431503</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.96489266666667</v>
+      </c>
+      <c r="N17">
+        <v>65.894678</v>
+      </c>
+      <c r="O17">
+        <v>0.6518893670423564</v>
+      </c>
+      <c r="P17">
+        <v>0.6518893670423563</v>
+      </c>
+      <c r="Q17">
+        <v>149.3211842042167</v>
+      </c>
+      <c r="R17">
+        <v>1343.89065783795</v>
+      </c>
+      <c r="S17">
+        <v>0.1149582277850984</v>
+      </c>
+      <c r="T17">
+        <v>0.1149582277850984</v>
       </c>
     </row>
   </sheetData>
